--- a/Documentation/Actual Leave Data/Actual Leave Data 2012-2016.xlsx
+++ b/Documentation/Actual Leave Data/Actual Leave Data 2012-2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpatterson\AnacondaProjects\microsim_R\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpatterson\AnacondaProjects\microsim_R\Documentation\Actual Leave Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="5520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>Participated for own illness leave</t>
   </si>
@@ -114,21 +114,53 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Eligible for own illness or maternal disability leave</t>
+  </si>
+  <si>
+    <t>Eligible for ill relative or child bonding leave</t>
+  </si>
+  <si>
+    <t>Take-up rate for own illness leave</t>
+  </si>
+  <si>
+    <t>Take-up rate for ill spouse leave</t>
+  </si>
+  <si>
+    <t>Take-up rate for ill child leave</t>
+  </si>
+  <si>
+    <t>Take-up rate for ill parent leave</t>
+  </si>
+  <si>
+    <t>Take-up rate for maternal disability leave</t>
+  </si>
+  <si>
+    <t>Take-up rate for bonding with new child leave</t>
+  </si>
+  <si>
+    <t>http://lims.dccouncil.us/Download/34613/B21-0415-Economic-and-Policy-Impact-Statement-UPLAA3.pdf</t>
+  </si>
+  <si>
+    <t>Avg Take-Up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +181,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,7 +213,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -191,6 +229,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -198,7 +240,10 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -237,13 +282,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+  <autoFilter ref="A1:E21"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="California" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="3" name="New Jersey" dataDxfId="1"/>
-    <tableColumn id="4" name="Rhode Island" dataDxfId="0"/>
+    <tableColumn id="2" name="California" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="3" name="New Jersey" dataDxfId="2"/>
+    <tableColumn id="4" name="Rhode Island" dataDxfId="1"/>
+    <tableColumn id="5" name="Avg Take-Up" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -512,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,9 +571,10 @@
     <col min="1" max="1" width="57.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -538,226 +587,371 @@
       <c r="D1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12">
+        <v>17282000</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2651326</v>
+      </c>
+      <c r="D2">
+        <v>383712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12">
+        <v>17282000</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3831200</v>
+      </c>
+      <c r="D3">
+        <v>383712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3.273680933919685E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.7494518688661517E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8.0276187231423574E-2</v>
+      </c>
+      <c r="E4" s="14">
+        <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
+        <v>4.3502505086427314E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4.0418073718319642E-3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4.1292545416579663E-4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1.6100847355174802E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
+        <v>2.0216058538384137E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2.578311150329823E-3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>3.5002088118605136E-4</v>
+      </c>
+      <c r="D6" s="13">
+        <v>5.4951697457934474E-4</v>
+      </c>
+      <c r="E6" s="14">
+        <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
+        <v>1.1592830020317397E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13">
+        <v>3.9694167920379594E-3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>3.7716642305282938E-4</v>
+      </c>
+      <c r="D7" s="13">
+        <v>9.3417885678488612E-4</v>
+      </c>
+      <c r="E7" s="14">
+        <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
+        <v>1.7602540239585584E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13">
+        <v>9.7343478764031939E-3</v>
+      </c>
+      <c r="C8" s="13">
+        <v>6.3003758613489249E-3</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2.6758729077141191E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
+        <v>1.4264484271631102E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1.2065096632334221E-2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>6.597932762580915E-3</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1.0449065271626241E-2</v>
+      </c>
+      <c r="E9" s="14">
+        <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
+        <v>9.7040315555137913E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B10" s="2">
         <v>568461.23379999993</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C10" s="2">
         <v>68691.75</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B11" s="2">
         <v>67797.255199999985</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C11" s="2">
         <v>1656.5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D11" s="9">
         <v>565.66666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B12" s="2">
         <v>41997.542560000002</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C12" s="2">
         <v>1470</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D12" s="9">
         <v>204.66666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B13" s="2">
         <v>67550.566200000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C13" s="2">
         <v>1746.75</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D13" s="9">
         <v>345.33333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B14" s="2">
         <v>164915.79999999999</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C14" s="2">
         <v>24112</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B15" s="2">
         <v>199723.2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C15" s="2">
         <v>25216.75</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D15" s="9">
         <v>3778</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B16" s="2">
         <v>636011.80000000005</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C16" s="2">
         <v>93859.4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D16" s="9">
         <v>40033</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B17" s="2">
         <v>377068.56395999994</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C17" s="2">
         <v>31865.8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D17" s="9">
         <v>4893.666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B18" s="2">
         <v>1013080.36396</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C18" s="2">
         <v>125725.2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D18" s="9">
         <v>44926.666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B19" s="3">
         <v>4564995820.8000002</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C19" s="6">
         <v>423460000</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D19" s="6">
         <v>166732853</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B20" s="3">
         <v>604813176.39999998</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C20" s="6">
         <v>83480000</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D20" s="6">
         <v>8927140.333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B21" s="3">
         <v>5169808997.1999998</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C21" s="6">
         <v>506940000</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D21" s="6">
         <v>175659993.33333334</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="https://www.nj.gov/labor/forms_pdfs/tdi/FLI Summary Report for 2016.pdf"/>
-    <hyperlink ref="A19" r:id="rId2" display="https://www.nj.gov/labor/forms_pdfs/tdi/TDI Report for 2016.pdf"/>
-    <hyperlink ref="A20" r:id="rId3"/>
-    <hyperlink ref="A16" r:id="rId4"/>
-    <hyperlink ref="A17" r:id="rId5"/>
+    <hyperlink ref="A26" r:id="rId1" display="https://www.nj.gov/labor/forms_pdfs/tdi/FLI Summary Report for 2016.pdf"/>
+    <hyperlink ref="A27" r:id="rId2" display="https://www.nj.gov/labor/forms_pdfs/tdi/TDI Report for 2016.pdf"/>
+    <hyperlink ref="A28" r:id="rId3"/>
+    <hyperlink ref="A24" r:id="rId4"/>
+    <hyperlink ref="A25" r:id="rId5"/>
+    <hyperlink ref="A29" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,339 +983,453 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(C2:G2)</f>
-        <v>568461.23379999993</v>
-      </c>
-      <c r="C2" s="2">
-        <f>C8-C5</f>
-        <v>591257.80799999996</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:G2" si="0">D8-D5</f>
-        <v>545121.36699999997</v>
-      </c>
-      <c r="E2" s="2">
-        <f t="shared" si="0"/>
-        <v>566410.46</v>
-      </c>
+        <f t="shared" ref="B2:B3" si="0">AVERAGE(C2:G2)</f>
+        <v>17282000</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
-        <v>565757.53899999999</v>
-      </c>
-      <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>573758.995</v>
-      </c>
+        <v>17282000</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B13" si="1">AVERAGE(C3:G3)</f>
-        <v>67797.255199999985</v>
-      </c>
-      <c r="C3" s="5">
-        <v>61812.877</v>
-      </c>
-      <c r="D3" s="5">
-        <v>65314.364999999998</v>
-      </c>
-      <c r="E3" s="5">
-        <v>67977.635999999999</v>
-      </c>
-      <c r="F3" s="5">
-        <v>69850.514999999999</v>
-      </c>
-      <c r="G3" s="5">
-        <v>74030.883000000002</v>
+        <f t="shared" si="0"/>
+        <v>17282000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>17282000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="1"/>
-        <v>41997.542560000002</v>
-      </c>
-      <c r="C4" s="5">
-        <v>38518.409999999996</v>
-      </c>
-      <c r="D4" s="5">
-        <v>39567.252999999997</v>
-      </c>
-      <c r="E4" s="5">
-        <v>42912.135999999999</v>
-      </c>
-      <c r="F4" s="5">
-        <v>44558.373299999999</v>
-      </c>
-      <c r="G4" s="5">
-        <v>44431.540500000003</v>
+        <v>31</v>
+      </c>
+      <c r="B4" s="11">
+        <f>AVERAGE(C4:G4)</f>
+        <v>3.273680933919685E-2</v>
+      </c>
+      <c r="F4">
+        <f>F10/F$3</f>
+        <v>3.273680933919685E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="1"/>
-        <v>67550.566200000001</v>
-      </c>
-      <c r="C5" s="5">
-        <v>64564.191999999995</v>
-      </c>
-      <c r="D5" s="5">
-        <v>66071.633000000002</v>
-      </c>
-      <c r="E5" s="5">
-        <v>67175.540000000008</v>
-      </c>
-      <c r="F5" s="5">
-        <v>68599.46100000001</v>
-      </c>
-      <c r="G5" s="5">
-        <v>71342.005000000005</v>
+        <v>32</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" ref="B5:B9" si="1">AVERAGE(C5:G5)</f>
+        <v>4.0418073718319642E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F9" si="2">F11/F$3</f>
+        <v>4.0418073718319642E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+        <v>33</v>
+      </c>
+      <c r="B6" s="11">
         <f t="shared" si="1"/>
-        <v>164915.79999999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>167811</v>
-      </c>
-      <c r="D6" s="2">
-        <v>150157</v>
-      </c>
-      <c r="E6" s="2">
-        <v>165388</v>
-      </c>
-      <c r="F6" s="2">
-        <v>168229</v>
-      </c>
-      <c r="G6" s="2">
-        <v>172994</v>
+        <v>2.578311150329823E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2.578311150329823E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+        <v>34</v>
+      </c>
+      <c r="B7" s="11">
         <f t="shared" si="1"/>
-        <v>199723.2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>183421</v>
-      </c>
-      <c r="D7" s="2">
-        <v>189317</v>
-      </c>
-      <c r="E7" s="2">
-        <v>200524</v>
-      </c>
-      <c r="F7" s="2">
-        <v>208509</v>
-      </c>
-      <c r="G7" s="2">
-        <v>216845</v>
+        <v>3.9694167920379594E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>3.9694167920379594E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+        <v>35</v>
+      </c>
+      <c r="B8" s="11">
         <f t="shared" si="1"/>
-        <v>636011.80000000005</v>
-      </c>
-      <c r="C8" s="2">
-        <v>655822</v>
-      </c>
-      <c r="D8" s="2">
-        <v>611193</v>
-      </c>
-      <c r="E8" s="2">
-        <v>633586</v>
-      </c>
-      <c r="F8" s="2">
-        <v>634357</v>
-      </c>
-      <c r="G8" s="2">
-        <v>645101</v>
+        <v>9.7343478764031939E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>9.7343478764031939E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+        <v>36</v>
+      </c>
+      <c r="B9" s="11">
         <f t="shared" si="1"/>
-        <v>377068.56395999994</v>
-      </c>
-      <c r="C9" s="2">
-        <f>SUM(C7,C3:C5)</f>
-        <v>348316.47899999999</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:G9" si="2">SUM(D7,D3:D5)</f>
-        <v>360270.25100000005</v>
-      </c>
-      <c r="E9" s="2">
+        <v>1.2065096632334221E-2</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="2"/>
-        <v>378589.31200000003</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>391517.3493</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>406649.42850000004</v>
+        <v>1.2065096632334221E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="1"/>
-        <v>1013080.36396</v>
+        <f>AVERAGE(C10:G10)</f>
+        <v>568461.23379999993</v>
       </c>
       <c r="C10" s="2">
-        <f>SUM(C8:C9)</f>
-        <v>1004138.4790000001</v>
+        <f>C16-C13</f>
+        <v>591257.80799999996</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:G10" si="3">SUM(D8:D9)</f>
-        <v>971463.25100000005</v>
+        <f t="shared" ref="D10:G10" si="3">D16-D13</f>
+        <v>545121.36699999997</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="3"/>
-        <v>1012175.312</v>
+        <v>566410.46</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>1025874.3493</v>
+        <v>565757.53899999999</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="3"/>
-        <v>1051750.4284999999</v>
+        <v>573758.995</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="1"/>
-        <v>4564995820.8000002</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4338421782</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4318143299</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4515361557</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4756039763</v>
-      </c>
-      <c r="G11" s="3">
-        <v>4897012703</v>
+        <f t="shared" ref="B11:B21" si="4">AVERAGE(C11:G11)</f>
+        <v>67797.255199999985</v>
+      </c>
+      <c r="C11" s="5">
+        <v>61812.877</v>
+      </c>
+      <c r="D11" s="5">
+        <v>65314.364999999998</v>
+      </c>
+      <c r="E11" s="5">
+        <v>67977.635999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>69850.514999999999</v>
+      </c>
+      <c r="G11" s="5">
+        <v>74030.883000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="1"/>
-        <v>604813176.39999998</v>
-      </c>
-      <c r="C12" s="3">
-        <v>527139889</v>
-      </c>
-      <c r="D12" s="3">
-        <v>554144299</v>
-      </c>
-      <c r="E12" s="3">
-        <v>599892578</v>
-      </c>
-      <c r="F12" s="3">
-        <v>649025569</v>
-      </c>
-      <c r="G12" s="3">
-        <v>693863547</v>
+        <f t="shared" si="4"/>
+        <v>41997.542560000002</v>
+      </c>
+      <c r="C12" s="5">
+        <v>38518.409999999996</v>
+      </c>
+      <c r="D12" s="5">
+        <v>39567.252999999997</v>
+      </c>
+      <c r="E12" s="5">
+        <v>42912.135999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44558.373299999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44431.540500000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="1"/>
-        <v>5169808997.1999998</v>
-      </c>
-      <c r="C13" s="6">
-        <f>SUM(C11:C12)</f>
-        <v>4865561671</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" ref="D13:G13" si="4">SUM(D11:D12)</f>
-        <v>4872287598</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="4"/>
-        <v>5115254135</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="4"/>
-        <v>5405065332</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="4"/>
-        <v>5590876250</v>
+        <f t="shared" si="4"/>
+        <v>67550.566200000001</v>
+      </c>
+      <c r="C13" s="5">
+        <v>64564.191999999995</v>
+      </c>
+      <c r="D13" s="5">
+        <v>66071.633000000002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>67175.540000000008</v>
+      </c>
+      <c r="F13" s="5">
+        <v>68599.46100000001</v>
+      </c>
+      <c r="G13" s="5">
+        <v>71342.005000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="4"/>
+        <v>164915.79999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>167811</v>
+      </c>
+      <c r="D14" s="2">
+        <v>150157</v>
+      </c>
+      <c r="E14" s="2">
+        <v>165388</v>
+      </c>
+      <c r="F14" s="2">
+        <v>168229</v>
+      </c>
+      <c r="G14" s="2">
+        <v>172994</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="4"/>
+        <v>199723.2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>183421</v>
+      </c>
+      <c r="D15" s="2">
+        <v>189317</v>
+      </c>
+      <c r="E15" s="2">
+        <v>200524</v>
+      </c>
+      <c r="F15" s="2">
+        <v>208509</v>
+      </c>
+      <c r="G15" s="2">
+        <v>216845</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="4"/>
+        <v>636011.80000000005</v>
+      </c>
+      <c r="C16" s="2">
+        <v>655822</v>
+      </c>
+      <c r="D16" s="2">
+        <v>611193</v>
+      </c>
+      <c r="E16" s="2">
+        <v>633586</v>
+      </c>
+      <c r="F16" s="2">
+        <v>634357</v>
+      </c>
+      <c r="G16" s="2">
+        <v>645101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="4"/>
+        <v>377068.56395999994</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(C15,C11:C13)</f>
+        <v>348316.47899999999</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:G17" si="5">SUM(D15,D11:D13)</f>
+        <v>360270.25100000005</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="5"/>
+        <v>378589.31200000003</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="5"/>
+        <v>391517.3493</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="5"/>
+        <v>406649.42850000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="4"/>
+        <v>1013080.36396</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUM(C16:C17)</f>
+        <v>1004138.4790000001</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:G18" si="6">SUM(D16:D17)</f>
+        <v>971463.25100000005</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="6"/>
+        <v>1012175.312</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="6"/>
+        <v>1025874.3493</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="6"/>
+        <v>1051750.4284999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="4"/>
+        <v>4564995820.8000002</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4338421782</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4318143299</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4515361557</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4756039763</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4897012703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="4"/>
+        <v>604813176.39999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>527139889</v>
+      </c>
+      <c r="D20" s="3">
+        <v>554144299</v>
+      </c>
+      <c r="E20" s="3">
+        <v>599892578</v>
+      </c>
+      <c r="F20" s="3">
+        <v>649025569</v>
+      </c>
+      <c r="G20" s="3">
+        <v>693863547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="4"/>
+        <v>5169808997.1999998</v>
+      </c>
+      <c r="C21" s="6">
+        <f>SUM(C19:C20)</f>
+        <v>4865561671</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:G21" si="7">SUM(D19:D20)</f>
+        <v>4872287598</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="7"/>
+        <v>5115254135</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="7"/>
+        <v>5405065332</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="7"/>
+        <v>5590876250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1440,7 @@
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -1152,353 +1460,465 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2:B3" si="0">AVERAGE(C2:G2)</f>
+        <v>2651326</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>2651326</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>3831200</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3831200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="11">
+        <f>AVERAGE(C4:G4)</f>
+        <v>1.7494518688661517E-2</v>
+      </c>
+      <c r="F4">
+        <f>F10/F$3</f>
+        <v>1.7494518688661517E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" ref="B5:B9" si="1">AVERAGE(C5:G5)</f>
+        <v>4.1292545416579663E-4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F9" si="2">F11/F$3</f>
+        <v>4.1292545416579663E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="1"/>
+        <v>3.5002088118605136E-4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>3.5002088118605136E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="1"/>
+        <v>3.7716642305282938E-4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>3.7716642305282938E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="1"/>
+        <v>6.3003758613489249E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>6.3003758613489249E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="1"/>
+        <v>6.597932762580915E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>6.597932762580915E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <f>AVERAGE(C2:G2)</f>
+      <c r="B10" s="2">
+        <f>AVERAGE(C10:G10)</f>
         <v>68691.75</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:G2" si="0">D8-D6</f>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:G10" si="3">D16-D14</f>
         <v>73745</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" si="0"/>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
         <v>69788</v>
       </c>
-      <c r="F2" s="2">
-        <f t="shared" si="0"/>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
         <v>67025</v>
       </c>
-      <c r="G2" s="2">
-        <f t="shared" si="0"/>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
         <v>64209</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B13" si="1">AVERAGE(C3:G3)</f>
+      <c r="B11" s="2">
+        <f t="shared" ref="B11:B21" si="4">AVERAGE(C11:G11)</f>
         <v>1656.5</v>
       </c>
-      <c r="C3">
+      <c r="C11">
         <v>1751</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E11" s="2">
         <v>1193</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F11" s="2">
         <v>1582</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G11" s="2">
         <v>2100</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <f t="shared" si="1"/>
+      <c r="B12" s="2">
+        <f t="shared" si="4"/>
         <v>1470</v>
       </c>
-      <c r="C4">
+      <c r="C12">
         <v>1459</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E12" s="2">
         <v>1123</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F12" s="2">
         <v>1341</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G12" s="2">
         <v>1957</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <f t="shared" si="1"/>
+      <c r="B13" s="2">
+        <f t="shared" si="4"/>
         <v>1746.75</v>
       </c>
-      <c r="C5">
+      <c r="C13">
         <v>2603</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E13" s="2">
         <v>1067</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F13" s="2">
         <v>1445</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G13" s="2">
         <v>1872</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <f t="shared" si="1"/>
+      <c r="B14" s="2">
+        <f t="shared" si="4"/>
         <v>24112</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D14" s="2">
         <v>24332</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E14" s="2">
         <v>24101</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F14" s="2">
         <v>24138</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G14" s="2">
         <v>23877</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <f t="shared" si="1"/>
+      <c r="B15" s="2">
+        <f t="shared" si="4"/>
         <v>25216.75</v>
       </c>
-      <c r="C7">
+      <c r="C15">
         <v>25079</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E15" s="2">
         <v>25200</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F15" s="2">
         <v>25278</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G15" s="2">
         <v>25310</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <f t="shared" si="1"/>
+      <c r="B16" s="2">
+        <f t="shared" si="4"/>
         <v>93859.4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C16" s="2">
         <v>98082</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D16" s="2">
         <v>98077</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E16" s="2">
         <v>93889</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F16" s="2">
         <v>91163</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G16" s="2">
         <v>88086</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" si="1"/>
+      <c r="B17" s="2">
+        <f t="shared" si="4"/>
         <v>31865.8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C17" s="2">
         <v>30892</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D17" s="2">
         <v>32065</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E17" s="2">
         <v>32168</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F17" s="2">
         <v>32033</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G17" s="2">
         <v>32171</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <f t="shared" si="1"/>
+      <c r="B18" s="2">
+        <f t="shared" si="4"/>
         <v>125725.2</v>
       </c>
-      <c r="C10" s="2">
-        <f>SUM(C8:C9)</f>
+      <c r="C18" s="2">
+        <f>SUM(C16:C17)</f>
         <v>128974</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:G10" si="2">SUM(D8:D9)</f>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:G18" si="5">SUM(D16:D17)</f>
         <v>130142</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
+      <c r="E18" s="2">
+        <f t="shared" si="5"/>
         <v>126057</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
+      <c r="F18" s="2">
+        <f t="shared" si="5"/>
         <v>123196</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
+      <c r="G18" s="2">
+        <f t="shared" si="5"/>
         <v>120257</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" si="1"/>
+      <c r="B19" s="3">
+        <f t="shared" si="4"/>
         <v>423460000</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C19" s="4">
         <v>429200000</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D19" s="4">
         <v>430800000</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E19" s="4">
         <v>422700000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F19" s="4">
         <v>419600000</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G19" s="4">
         <v>415000000</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <f t="shared" si="1"/>
+      <c r="B20" s="3">
+        <f t="shared" si="4"/>
         <v>83480000</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C20" s="4">
         <v>77500000</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D20" s="4">
         <v>82300000</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E20" s="4">
         <v>83900000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F20" s="4">
         <v>85800000</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G20" s="4">
         <v>87900000</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <f t="shared" si="1"/>
+      <c r="B21" s="3">
+        <f t="shared" si="4"/>
         <v>506940000</v>
       </c>
-      <c r="C13" s="3">
-        <f>SUM(C11:C12)</f>
+      <c r="C21" s="3">
+        <f>SUM(C19:C20)</f>
         <v>506700000</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" ref="D13" si="3">SUM(D11:D12)</f>
+      <c r="D21" s="3">
+        <f t="shared" ref="D21" si="6">SUM(D19:D20)</f>
         <v>513100000</v>
       </c>
-      <c r="E13" s="3">
-        <f t="shared" ref="E13" si="4">SUM(E11:E12)</f>
+      <c r="E21" s="3">
+        <f t="shared" ref="E21" si="7">SUM(E19:E20)</f>
         <v>506600000</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" ref="F13" si="5">SUM(F11:F12)</f>
+      <c r="F21" s="3">
+        <f t="shared" ref="F21" si="8">SUM(F19:F20)</f>
         <v>505400000</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" ref="G13" si="6">SUM(G11:G12)</f>
+      <c r="G21" s="3">
+        <f t="shared" ref="G21" si="9">SUM(G19:G20)</f>
         <v>502900000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" display="https://www.nj.gov/labor/forms_pdfs/tdi/FLI Summary Report for 2016.pdf"/>
-    <hyperlink ref="A17" r:id="rId2" display="https://www.nj.gov/labor/forms_pdfs/tdi/TDI Report for 2016.pdf"/>
+    <hyperlink ref="A24" r:id="rId1" display="https://www.nj.gov/labor/forms_pdfs/tdi/FLI Summary Report for 2016.pdf"/>
+    <hyperlink ref="A25" r:id="rId2" display="https://www.nj.gov/labor/forms_pdfs/tdi/TDI Report for 2016.pdf"/>
+    <hyperlink ref="A26" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1506,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1941,7 @@
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1535,235 +1955,358 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5">
+        <f t="shared" ref="B2:B14" si="0">AVERAGE(C2:E2)</f>
+        <v>363956</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2">
+        <v>363956</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" si="0"/>
+        <v>363956</v>
+      </c>
+      <c r="D3">
+        <v>363956</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="11">
+        <f t="shared" si="0"/>
+        <v>8.0276187231423574E-2</v>
+      </c>
+      <c r="D4">
+        <f>D10/D$3</f>
+        <v>8.0276187231423574E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6100847355174802E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D9" si="1">D11/D$3</f>
+        <v>1.6100847355174802E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4951697457934474E-4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>5.4951697457934474E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3417885678488612E-4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>9.3417885678488612E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6758729077141191E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2.6758729077141191E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0449065271626241E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.0449065271626241E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>30024.75</v>
+      </c>
+      <c r="C10" s="2">
+        <f>0.75*C16</f>
+        <v>29760</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:E10" si="2">0.75*D16</f>
+        <v>29217</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>31097.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <f>AVERAGE(C3:E3)</f>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
         <v>565.66666666666663</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C11" s="5">
         <v>474</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D11" s="5">
         <v>586</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E11" s="5">
         <v>637</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <f t="shared" ref="B4:B13" si="0">AVERAGE(C4:E4)</f>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
         <v>204.66666666666666</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C12" s="5">
         <v>227</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D12" s="5">
         <v>200</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E12" s="5">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>345.33333333333331</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C13" s="5">
         <v>322</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D13" s="5">
         <v>340</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E13" s="5">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>10008.25</v>
+      </c>
+      <c r="C14" s="5">
+        <f>0.25*C16</f>
+        <v>9920</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:E14" si="3">0.25*D16</f>
+        <v>9739</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="3"/>
+        <v>10365.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
+      <c r="B15" s="5">
+        <f t="shared" ref="B15:B21" si="4">AVERAGE(C15:E15)</f>
         <v>3778</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C15" s="5">
         <v>2847</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D15" s="5">
         <v>3803</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E15" s="5">
         <v>4684</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
+      <c r="B16" s="5">
+        <f t="shared" si="4"/>
         <v>40033</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C16" s="5">
         <v>39680</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D16" s="5">
         <v>38956</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E16" s="5">
         <v>41463</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
+      <c r="B17" s="5">
+        <f t="shared" si="4"/>
         <v>4893.666666666667</v>
       </c>
-      <c r="C9" s="5">
-        <f t="shared" ref="C9" si="1">SUM(C7,C3:C5)</f>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17" si="5">SUM(C15,C11:C13)</f>
         <v>3870</v>
       </c>
-      <c r="D9" s="5">
-        <f>SUM(D7,D3:D5)</f>
+      <c r="D17" s="5">
+        <f>SUM(D15,D11:D13)</f>
         <v>4929</v>
       </c>
-      <c r="E9" s="5">
-        <f>SUM(E7,E3:E5)</f>
+      <c r="E17" s="5">
+        <f>SUM(E15,E11:E13)</f>
         <v>5882</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <f t="shared" si="0"/>
+      <c r="B18" s="5">
+        <f t="shared" si="4"/>
         <v>44926.666666666664</v>
       </c>
-      <c r="C10" s="5">
-        <f t="shared" ref="C10" si="2">SUM(C8:C9)</f>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18" si="6">SUM(C16:C17)</f>
         <v>43550</v>
       </c>
-      <c r="D10" s="5">
-        <f>SUM(D8:D9)</f>
+      <c r="D18" s="5">
+        <f>SUM(D16:D17)</f>
         <v>43885</v>
       </c>
-      <c r="E10" s="5">
-        <f>SUM(E8:E9)</f>
+      <c r="E18" s="5">
+        <f>SUM(E16:E17)</f>
         <v>47345</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
+      <c r="B19" s="3">
+        <f t="shared" si="4"/>
         <v>166732853</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C19" s="3">
         <v>164250030</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D19" s="1">
         <v>164172375</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E19" s="3">
         <v>171776154</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
+      <c r="B20" s="3">
+        <f t="shared" si="4"/>
         <v>8927140.333333334</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C20" s="3">
         <v>6336600</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D20" s="3">
         <v>9243771</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E20" s="3">
         <v>11201050</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
+      <c r="B21" s="3">
+        <f t="shared" si="4"/>
         <v>175659993.33333334</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" ref="C13" si="3">SUM(C11:C12)</f>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21" si="7">SUM(C19:C20)</f>
         <v>170586630</v>
       </c>
-      <c r="D13" s="4">
-        <f>SUM(D11:D12)</f>
+      <c r="D21" s="4">
+        <f>SUM(D19:D20)</f>
         <v>173416146</v>
       </c>
-      <c r="E13" s="4">
-        <f>SUM(E11:E12)</f>
+      <c r="E21" s="4">
+        <f>SUM(E19:E20)</f>
         <v>182977204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Actual Leave Data/Actual Leave Data 2012-2016.xlsx
+++ b/Documentation/Actual Leave Data/Actual Leave Data 2012-2016.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpatterson\AnacondaProjects\microsim_R\Documentation\Actual Leave Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsp52\AnacondaProjects\microsim_R\Documentation\Actual Leave Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE945B-2581-4742-B2B1-92E44FC251AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="-5490" yWindow="150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="4" r:id="rId1"/>
@@ -17,17 +18,23 @@
     <sheet name="New Jersey" sheetId="2" r:id="rId3"/>
     <sheet name="Rhode Island" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="48">
   <si>
     <t>Participated for own illness leave</t>
   </si>
@@ -144,12 +151,39 @@
   </si>
   <si>
     <t>Avg Take-Up</t>
+  </si>
+  <si>
+    <t>Average weeks for own illness or maternal disability leave</t>
+  </si>
+  <si>
+    <t>Average weeks for ill relative or child bonding leave</t>
+  </si>
+  <si>
+    <t>Average weeks for own illness leave</t>
+  </si>
+  <si>
+    <t>Average weeks for ill spouse leave</t>
+  </si>
+  <si>
+    <t>Average weeks for ill child leave</t>
+  </si>
+  <si>
+    <t>Average weeks for ill parent leave</t>
+  </si>
+  <si>
+    <t>Average weeks for maternal disability leave</t>
+  </si>
+  <si>
+    <t>Average weeks for bonding with new child leave</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -213,7 +247,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -233,6 +267,9 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -282,14 +319,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
-  <autoFilter ref="A1:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+  <autoFilter ref="A1:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="California" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="3" name="New Jersey" dataDxfId="2"/>
-    <tableColumn id="4" name="Rhode Island" dataDxfId="1"/>
-    <tableColumn id="5" name="Avg Take-Up" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="California" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="New Jersey" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rhode Island" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Avg Take-Up" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -559,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,215 +766,335 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>568461.23379999993</v>
-      </c>
-      <c r="C10" s="2">
-        <v>68691.75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>67797.255199999985</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1656.5</v>
-      </c>
-      <c r="D11" s="9">
-        <v>565.66666666666663</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="16">
+        <v>4.6290177661116543</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>41997.542560000002</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1470</v>
-      </c>
-      <c r="D12" s="9">
-        <v>204.66666666666666</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3.6636406740449368</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2">
-        <v>67550.566200000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1746.75</v>
-      </c>
-      <c r="D13" s="9">
-        <v>345.33333333333331</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16">
+        <v>6.9647248977328706</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>164915.79999999999</v>
-      </c>
-      <c r="C14" s="2">
-        <v>24112</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2">
-        <v>199723.2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>25216.75</v>
-      </c>
-      <c r="D15" s="9">
-        <v>3778</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="16">
+        <v>5.7387494354965467</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="16">
+        <v>15.794</v>
+      </c>
+      <c r="C16" s="16">
+        <v>10.294390279817241</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16">
+        <v>5.33</v>
+      </c>
+      <c r="C17" s="16">
+        <v>5.5976469902643151</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>568461.23379999993</v>
+      </c>
+      <c r="C18" s="2">
+        <v>68691.75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>67797.255199999985</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1656.5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>565.66666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>41997.542560000002</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1470</v>
+      </c>
+      <c r="D20" s="9">
+        <v>204.66666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>67550.566200000001</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1746.75</v>
+      </c>
+      <c r="D21" s="9">
+        <v>345.33333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>164915.79999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>24112</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>199723.2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>25216.75</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B24" s="2">
         <v>636011.80000000005</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C24" s="2">
         <v>93859.4</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D24" s="9">
         <v>40033</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B25" s="2">
         <v>377068.56395999994</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C25" s="2">
         <v>31865.8</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D25" s="9">
         <v>4893.666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B26" s="2">
         <v>1013080.36396</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C26" s="2">
         <v>125725.2</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D26" s="9">
         <v>44926.666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B27" s="3">
         <v>4564995820.8000002</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C27" s="6">
         <v>423460000</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D27" s="6">
         <v>166732853</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B28" s="3">
         <v>604813176.39999998</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C28" s="6">
         <v>83480000</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D28" s="6">
         <v>8927140.333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B29" s="3">
         <v>5169808997.1999998</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C29" s="6">
         <v>506940000</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D29" s="6">
         <v>175659993.33333334</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" display="https://www.nj.gov/labor/forms_pdfs/tdi/FLI Summary Report for 2016.pdf"/>
-    <hyperlink ref="A27" r:id="rId2" display="https://www.nj.gov/labor/forms_pdfs/tdi/TDI Report for 2016.pdf"/>
-    <hyperlink ref="A28" r:id="rId3"/>
-    <hyperlink ref="A24" r:id="rId4"/>
-    <hyperlink ref="A25" r:id="rId5"/>
-    <hyperlink ref="A29" r:id="rId6"/>
+    <hyperlink ref="A34" r:id="rId1" display="https://www.nj.gov/labor/forms_pdfs/tdi/FLI Summary Report for 2016.pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A35" r:id="rId2" display="https://www.nj.gov/labor/forms_pdfs/tdi/TDI Report for 2016.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A36" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A37" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -947,11 +1104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1175,7 @@
         <v>3.273680933919685E-2</v>
       </c>
       <c r="F4">
-        <f>F10/F$3</f>
+        <f>F12/F$3</f>
         <v>3.273680933919685E-2</v>
       </c>
     </row>
@@ -1027,11 +1184,11 @@
         <v>32</v>
       </c>
       <c r="B5" s="11">
-        <f t="shared" ref="B5:B9" si="1">AVERAGE(C5:G5)</f>
+        <f t="shared" ref="B5:B11" si="1">AVERAGE(C5:G5)</f>
         <v>4.0418073718319642E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F9" si="2">F11/F$3</f>
+        <f>F13/F$3</f>
         <v>4.0418073718319642E-3</v>
       </c>
     </row>
@@ -1044,7 +1201,7 @@
         <v>2.578311150329823E-3</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f>F14/F$3</f>
         <v>2.578311150329823E-3</v>
       </c>
     </row>
@@ -1057,7 +1214,7 @@
         <v>3.9694167920379594E-3</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f>F15/F$3</f>
         <v>3.9694167920379594E-3</v>
       </c>
     </row>
@@ -1070,7 +1227,7 @@
         <v>9.7343478764031939E-3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f>F16/F$3</f>
         <v>9.7343478764031939E-3</v>
       </c>
     </row>
@@ -1083,341 +1240,389 @@
         <v>1.2065096632334221E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f>F17/F$3</f>
         <v>1.2065096632334221E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <f>AVERAGE(C10:G10)</f>
-        <v>568461.23379999993</v>
-      </c>
-      <c r="C10" s="2">
-        <f>C16-C13</f>
-        <v>591257.80799999996</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:G10" si="3">D16-D13</f>
-        <v>545121.36699999997</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="3"/>
-        <v>566410.46</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="3"/>
-        <v>565757.53899999999</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>573758.995</v>
+        <v>39</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" si="1"/>
+        <v>15.794</v>
+      </c>
+      <c r="C10">
+        <v>15.48</v>
+      </c>
+      <c r="D10">
+        <v>15.98</v>
+      </c>
+      <c r="E10">
+        <v>15.66</v>
+      </c>
+      <c r="F10">
+        <v>15.9</v>
+      </c>
+      <c r="G10">
+        <v>15.95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" ref="B11:B21" si="4">AVERAGE(C11:G11)</f>
-        <v>67797.255199999985</v>
-      </c>
-      <c r="C11" s="5">
-        <v>61812.877</v>
-      </c>
-      <c r="D11" s="5">
-        <v>65314.364999999998</v>
-      </c>
-      <c r="E11" s="5">
-        <v>67977.635999999999</v>
-      </c>
-      <c r="F11" s="5">
-        <v>69850.514999999999</v>
-      </c>
-      <c r="G11" s="5">
-        <v>74030.883000000002</v>
+        <v>40</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="1"/>
+        <v>5.33</v>
+      </c>
+      <c r="C11">
+        <v>5.3</v>
+      </c>
+      <c r="D11">
+        <v>5.35</v>
+      </c>
+      <c r="E11">
+        <v>5.33</v>
+      </c>
+      <c r="F11">
+        <v>5.32</v>
+      </c>
+      <c r="G11">
+        <v>5.35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="4"/>
-        <v>41997.542560000002</v>
-      </c>
-      <c r="C12" s="5">
-        <v>38518.409999999996</v>
-      </c>
-      <c r="D12" s="5">
-        <v>39567.252999999997</v>
-      </c>
-      <c r="E12" s="5">
-        <v>42912.135999999999</v>
-      </c>
-      <c r="F12" s="5">
-        <v>44558.373299999999</v>
-      </c>
-      <c r="G12" s="5">
-        <v>44431.540500000003</v>
+        <f>AVERAGE(C12:G12)</f>
+        <v>568461.23379999993</v>
+      </c>
+      <c r="C12" s="2">
+        <f>C18-C15</f>
+        <v>591257.80799999996</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:G12" si="2">D18-D15</f>
+        <v>545121.36699999997</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>566410.46</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>565757.53899999999</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>573758.995</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="4"/>
-        <v>67550.566200000001</v>
+        <f t="shared" ref="B13:B23" si="3">AVERAGE(C13:G13)</f>
+        <v>67797.255199999985</v>
       </c>
       <c r="C13" s="5">
-        <v>64564.191999999995</v>
+        <v>61812.877</v>
       </c>
       <c r="D13" s="5">
-        <v>66071.633000000002</v>
+        <v>65314.364999999998</v>
       </c>
       <c r="E13" s="5">
-        <v>67175.540000000008</v>
+        <v>67977.635999999999</v>
       </c>
       <c r="F13" s="5">
-        <v>68599.46100000001</v>
+        <v>69850.514999999999</v>
       </c>
       <c r="G13" s="5">
-        <v>71342.005000000005</v>
+        <v>74030.883000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="4"/>
-        <v>164915.79999999999</v>
-      </c>
-      <c r="C14" s="2">
-        <v>167811</v>
-      </c>
-      <c r="D14" s="2">
-        <v>150157</v>
-      </c>
-      <c r="E14" s="2">
-        <v>165388</v>
-      </c>
-      <c r="F14" s="2">
-        <v>168229</v>
-      </c>
-      <c r="G14" s="2">
-        <v>172994</v>
+        <f t="shared" si="3"/>
+        <v>41997.542560000002</v>
+      </c>
+      <c r="C14" s="5">
+        <v>38518.409999999996</v>
+      </c>
+      <c r="D14" s="5">
+        <v>39567.252999999997</v>
+      </c>
+      <c r="E14" s="5">
+        <v>42912.135999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44558.373299999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>44431.540500000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="4"/>
-        <v>199723.2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>183421</v>
-      </c>
-      <c r="D15" s="2">
-        <v>189317</v>
-      </c>
-      <c r="E15" s="2">
-        <v>200524</v>
-      </c>
-      <c r="F15" s="2">
-        <v>208509</v>
-      </c>
-      <c r="G15" s="2">
-        <v>216845</v>
+        <f t="shared" si="3"/>
+        <v>67550.566200000001</v>
+      </c>
+      <c r="C15" s="5">
+        <v>64564.191999999995</v>
+      </c>
+      <c r="D15" s="5">
+        <v>66071.633000000002</v>
+      </c>
+      <c r="E15" s="5">
+        <v>67175.540000000008</v>
+      </c>
+      <c r="F15" s="5">
+        <v>68599.46100000001</v>
+      </c>
+      <c r="G15" s="5">
+        <v>71342.005000000005</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="4"/>
-        <v>636011.80000000005</v>
+        <f t="shared" si="3"/>
+        <v>164915.79999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>655822</v>
+        <v>167811</v>
       </c>
       <c r="D16" s="2">
-        <v>611193</v>
+        <v>150157</v>
       </c>
       <c r="E16" s="2">
-        <v>633586</v>
+        <v>165388</v>
       </c>
       <c r="F16" s="2">
-        <v>634357</v>
+        <v>168229</v>
       </c>
       <c r="G16" s="2">
-        <v>645101</v>
+        <v>172994</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="4"/>
-        <v>377068.56395999994</v>
+        <f t="shared" si="3"/>
+        <v>199723.2</v>
       </c>
       <c r="C17" s="2">
-        <f>SUM(C15,C11:C13)</f>
-        <v>348316.47899999999</v>
+        <v>183421</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17:G17" si="5">SUM(D15,D11:D13)</f>
-        <v>360270.25100000005</v>
+        <v>189317</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="5"/>
-        <v>378589.31200000003</v>
+        <v>200524</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="5"/>
-        <v>391517.3493</v>
+        <v>208509</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="5"/>
-        <v>406649.42850000004</v>
+        <v>216845</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="4"/>
-        <v>1013080.36396</v>
+        <f t="shared" si="3"/>
+        <v>636011.80000000005</v>
       </c>
       <c r="C18" s="2">
-        <f>SUM(C16:C17)</f>
-        <v>1004138.4790000001</v>
+        <v>655822</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ref="D18:G18" si="6">SUM(D16:D17)</f>
-        <v>971463.25100000005</v>
+        <v>611193</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="6"/>
-        <v>1012175.312</v>
+        <v>633586</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="6"/>
-        <v>1025874.3493</v>
+        <v>634357</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="6"/>
-        <v>1051750.4284999999</v>
+        <v>645101</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="4"/>
-        <v>4564995820.8000002</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4338421782</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4318143299</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4515361557</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4756039763</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4897012703</v>
+        <f t="shared" si="3"/>
+        <v>377068.56395999994</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUM(C17,C13:C15)</f>
+        <v>348316.47899999999</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM(D17,D13:D15)</f>
+        <v>360270.25100000005</v>
+      </c>
+      <c r="E19" s="2">
+        <f>SUM(E17,E13:E15)</f>
+        <v>378589.31200000003</v>
+      </c>
+      <c r="F19" s="2">
+        <f>SUM(F17,F13:F15)</f>
+        <v>391517.3493</v>
+      </c>
+      <c r="G19" s="2">
+        <f>SUM(G17,G13:G15)</f>
+        <v>406649.42850000004</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
+        <f t="shared" si="3"/>
+        <v>1013080.36396</v>
+      </c>
+      <c r="C20" s="2">
+        <f>SUM(C18:C19)</f>
+        <v>1004138.4790000001</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:G20" si="4">SUM(D18:D19)</f>
+        <v>971463.25100000005</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="4"/>
-        <v>604813176.39999998</v>
-      </c>
-      <c r="C20" s="3">
-        <v>527139889</v>
-      </c>
-      <c r="D20" s="3">
-        <v>554144299</v>
-      </c>
-      <c r="E20" s="3">
-        <v>599892578</v>
-      </c>
-      <c r="F20" s="3">
-        <v>649025569</v>
-      </c>
-      <c r="G20" s="3">
-        <v>693863547</v>
+        <v>1012175.312</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>1025874.3493</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="4"/>
+        <v>1051750.4284999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="4"/>
-        <v>5169808997.1999998</v>
-      </c>
-      <c r="C21" s="6">
-        <f>SUM(C19:C20)</f>
-        <v>4865561671</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" ref="D21:G21" si="7">SUM(D19:D20)</f>
-        <v>4872287598</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="7"/>
-        <v>5115254135</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="7"/>
-        <v>5405065332</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="7"/>
-        <v>5590876250</v>
+        <f t="shared" si="3"/>
+        <v>4564995820.8000002</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4338421782</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4318143299</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4515361557</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4756039763</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4897012703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="3"/>
+        <v>604813176.39999998</v>
+      </c>
+      <c r="C22" s="3">
+        <v>527139889</v>
+      </c>
+      <c r="D22" s="3">
+        <v>554144299</v>
+      </c>
+      <c r="E22" s="3">
+        <v>599892578</v>
+      </c>
+      <c r="F22" s="3">
+        <v>649025569</v>
+      </c>
+      <c r="G22" s="3">
+        <v>693863547</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="3"/>
+        <v>5169808997.1999998</v>
+      </c>
+      <c r="C23" s="6">
+        <f>SUM(C21:C22)</f>
+        <v>4865561671</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:G23" si="5">SUM(D21:D22)</f>
+        <v>4872287598</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="5"/>
+        <v>5115254135</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="5"/>
+        <v>5405065332</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="5"/>
+        <v>5590876250</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -1425,11 +1630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B10" sqref="B10:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1645,7 @@
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -1460,7 +1665,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1476,7 +1681,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1693,7 @@
         <v>3831200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1497,24 +1702,24 @@
         <v>1.7494518688661517E-2</v>
       </c>
       <c r="F4">
-        <f>F10/F$3</f>
+        <f>F18/F$3</f>
         <v>1.7494518688661517E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="11">
-        <f t="shared" ref="B5:B9" si="1">AVERAGE(C5:G5)</f>
+        <f t="shared" ref="B5:B17" si="1">AVERAGE(C5:G5)</f>
         <v>4.1292545416579663E-4</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F9" si="2">F11/F$3</f>
+        <f>F19/F$3</f>
         <v>4.1292545416579663E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1523,11 +1728,11 @@
         <v>3.5002088118605136E-4</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f>F20/F$3</f>
         <v>3.5002088118605136E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1536,11 +1741,11 @@
         <v>3.7716642305282938E-4</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f>F21/F$3</f>
         <v>3.7716642305282938E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1549,11 +1754,11 @@
         <v>6.3003758613489249E-3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f>F22/F$3</f>
         <v>6.3003758613489249E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1562,370 +1767,582 @@
         <v>6.597932762580915E-3</v>
       </c>
       <c r="F9">
+        <f>F23/F$3</f>
+        <v>6.597932762580915E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="1"/>
+        <v>4.6290177661116543</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <f>7473/E19</f>
+        <v>6.2640402347024304</v>
+      </c>
+      <c r="F11">
+        <f>7120/F19</f>
+        <v>4.5006321112515799</v>
+      </c>
+      <c r="G11">
+        <f>6557/G19</f>
+        <v>3.1223809523809525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" si="1"/>
+        <v>3.6636406740449368</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <f>5267/E20</f>
+        <v>4.6901157613535176</v>
+      </c>
+      <c r="F12">
+        <f>4806/F20</f>
+        <v>3.5838926174496644</v>
+      </c>
+      <c r="G12">
+        <f>5317/G20</f>
+        <v>2.7169136433316301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9647248977328706</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <f>10130/E21</f>
+        <v>9.4939081537019678</v>
+      </c>
+      <c r="F13">
+        <f>9226/F21</f>
+        <v>6.38477508650519</v>
+      </c>
+      <c r="G13">
+        <f>9389/G21</f>
+        <v>5.0154914529914532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="11">
+        <f t="shared" si="1"/>
+        <v>5.7387494354965467</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="16">
+        <f>143305/E23</f>
+        <v>5.6867063492063492</v>
+      </c>
+      <c r="F15" s="16">
+        <f>145117/F23</f>
+        <v>5.7408418387530658</v>
+      </c>
+      <c r="G15" s="16">
+        <f>146512/G23</f>
+        <v>5.7887001185302251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" si="1"/>
+        <v>10.294390279817241</v>
+      </c>
+      <c r="C16" s="16">
+        <f>1007471/C24</f>
+        <v>10.271721620684733</v>
+      </c>
+      <c r="D16" s="16">
+        <f>998683/D24</f>
+        <v>10.182642209692384</v>
+      </c>
+      <c r="E16" s="15">
+        <f>967718/E24</f>
+        <v>10.30704342361725</v>
+      </c>
+      <c r="F16">
+        <f>943124/F24</f>
+        <v>10.34546910479032</v>
+      </c>
+      <c r="G16">
+        <f>913018/G24</f>
+        <v>10.365075040301523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5976469902643151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="C17:F17" si="2">(E15*E23+E13*E21+E12*E20+E11*E19)/SUM(E19:E21,E23)</f>
+        <v>5.8137704229786937</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="2"/>
-        <v>6.597932762580915E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>5.6084800647642181</v>
+      </c>
+      <c r="G17">
+        <f>(G15*G23+G13*G21+G12*G20+G11*G19)/SUM(G19:G21,G23)</f>
+        <v>5.3706904830500335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
-        <f>AVERAGE(C10:G10)</f>
+      <c r="B18" s="2">
+        <f>AVERAGE(C18:G18)</f>
         <v>68691.75</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:G10" si="3">D16-D14</f>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:G18" si="3">D24-D22</f>
         <v>73745</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>69788</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F18" s="2">
         <f t="shared" si="3"/>
         <v>67025</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="3"/>
         <v>64209</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" ref="B11:B21" si="4">AVERAGE(C11:G11)</f>
+      <c r="B19" s="2">
+        <f t="shared" ref="B19:B29" si="4">AVERAGE(C19:G19)</f>
         <v>1656.5</v>
       </c>
-      <c r="C11">
+      <c r="C19">
         <v>1751</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E19" s="2">
         <v>1193</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F19" s="2">
         <v>1582</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G19" s="2">
         <v>2100</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B20" s="2">
         <f t="shared" si="4"/>
         <v>1470</v>
       </c>
-      <c r="C12">
+      <c r="C20">
         <v>1459</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E20" s="2">
         <v>1123</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F20" s="2">
         <v>1341</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G20" s="2">
         <v>1957</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B21" s="2">
         <f t="shared" si="4"/>
         <v>1746.75</v>
       </c>
-      <c r="C13">
+      <c r="C21">
         <v>2603</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E21" s="2">
         <v>1067</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F21" s="2">
         <v>1445</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G21" s="2">
         <v>1872</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B22" s="2">
         <f t="shared" si="4"/>
         <v>24112</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D22" s="2">
         <v>24332</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E22" s="2">
         <v>24101</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F22" s="2">
         <v>24138</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G22" s="2">
         <v>23877</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B23" s="2">
         <f t="shared" si="4"/>
         <v>25216.75</v>
       </c>
-      <c r="C15">
+      <c r="C23">
         <v>25079</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E23" s="2">
         <v>25200</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F23" s="2">
         <v>25278</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G23" s="2">
         <v>25310</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B24" s="2">
         <f t="shared" si="4"/>
         <v>93859.4</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C24" s="2">
         <v>98082</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D24" s="2">
         <v>98077</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E24" s="2">
         <v>93889</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F24" s="2">
         <v>91163</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G24" s="2">
         <v>88086</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B25" s="2">
         <f t="shared" si="4"/>
         <v>31865.8</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C25" s="2">
         <v>30892</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D25" s="2">
         <v>32065</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E25" s="2">
         <v>32168</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F25" s="2">
         <v>32033</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G25" s="2">
         <v>32171</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B26" s="2">
         <f t="shared" si="4"/>
         <v>125725.2</v>
       </c>
-      <c r="C18" s="2">
-        <f>SUM(C16:C17)</f>
+      <c r="C26" s="2">
+        <f>SUM(C24:C25)</f>
         <v>128974</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:G18" si="5">SUM(D16:D17)</f>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:G26" si="5">SUM(D24:D25)</f>
         <v>130142</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E26" s="2">
         <f t="shared" si="5"/>
         <v>126057</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F26" s="2">
         <f t="shared" si="5"/>
         <v>123196</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G26" s="2">
         <f t="shared" si="5"/>
         <v>120257</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B27" s="3">
         <f t="shared" si="4"/>
         <v>423460000</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C27" s="4">
         <v>429200000</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D27" s="4">
         <v>430800000</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E27" s="4">
         <v>422700000</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F27" s="4">
         <v>419600000</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G27" s="4">
         <v>415000000</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B28" s="3">
         <f t="shared" si="4"/>
         <v>83480000</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C28" s="4">
         <v>77500000</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D28" s="4">
         <v>82300000</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E28" s="4">
         <v>83900000</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F28" s="4">
         <v>85800000</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G28" s="4">
         <v>87900000</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B29" s="3">
         <f t="shared" si="4"/>
         <v>506940000</v>
       </c>
-      <c r="C21" s="3">
-        <f>SUM(C19:C20)</f>
+      <c r="C29" s="3">
+        <f>SUM(C27:C28)</f>
         <v>506700000</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" ref="D21" si="6">SUM(D19:D20)</f>
+      <c r="D29" s="3">
+        <f t="shared" ref="D29" si="6">SUM(D27:D28)</f>
         <v>513100000</v>
       </c>
-      <c r="E21" s="3">
-        <f t="shared" ref="E21" si="7">SUM(E19:E20)</f>
+      <c r="E29" s="3">
+        <f t="shared" ref="E29" si="7">SUM(E27:E28)</f>
         <v>506600000</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" ref="F21" si="8">SUM(F19:F20)</f>
+      <c r="F29" s="3">
+        <f t="shared" ref="F29" si="8">SUM(F27:F28)</f>
         <v>505400000</v>
       </c>
-      <c r="G21" s="3">
-        <f t="shared" ref="G21" si="9">SUM(G19:G20)</f>
+      <c r="G29" s="3">
+        <f t="shared" ref="G29" si="9">SUM(G27:G28)</f>
         <v>502900000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1" display="https://www.nj.gov/labor/forms_pdfs/tdi/FLI Summary Report for 2016.pdf"/>
-    <hyperlink ref="A25" r:id="rId2" display="https://www.nj.gov/labor/forms_pdfs/tdi/TDI Report for 2016.pdf"/>
-    <hyperlink ref="A26" r:id="rId3"/>
+    <hyperlink ref="A32" r:id="rId1" display="https://www.nj.gov/labor/forms_pdfs/tdi/FLI Summary Report for 2016.pdf" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A33" r:id="rId2" display="https://www.nj.gov/labor/forms_pdfs/tdi/TDI Report for 2016.pdf" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A34" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2305,7 +2722,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1"/>
+    <hyperlink ref="A24" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Actual Leave Data/Actual Leave Data 2012-2016.xlsx
+++ b/Documentation/Actual Leave Data/Actual Leave Data 2012-2016.xlsx
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="B10:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,92 +639,92 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" s="13">
-        <v>4.0418073718319642E-3</v>
+        <v>9.7343478764031939E-3</v>
       </c>
       <c r="C5" s="13">
-        <v>4.1292545416579663E-4</v>
+        <v>6.3003758613489249E-3</v>
       </c>
       <c r="D5" s="13">
-        <v>1.6100847355174802E-3</v>
+        <v>2.6758729077141191E-2</v>
       </c>
       <c r="E5" s="14">
         <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
-        <v>2.0216058538384137E-3</v>
+        <v>1.4264484271631102E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" s="13">
-        <v>2.578311150329823E-3</v>
+        <v>1.2065096632334221E-2</v>
       </c>
       <c r="C6" s="13">
-        <v>3.5002088118605136E-4</v>
+        <v>6.597932762580915E-3</v>
       </c>
       <c r="D6" s="13">
-        <v>5.4951697457934474E-4</v>
+        <v>1.0449065271626241E-2</v>
       </c>
       <c r="E6" s="14">
         <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
-        <v>1.1592830020317397E-3</v>
+        <v>9.7040315555137913E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="13">
-        <v>3.9694167920379594E-3</v>
+        <v>4.0418073718319642E-3</v>
       </c>
       <c r="C7" s="13">
-        <v>3.7716642305282938E-4</v>
+        <v>4.1292545416579663E-4</v>
       </c>
       <c r="D7" s="13">
-        <v>9.3417885678488612E-4</v>
+        <v>1.6100847355174802E-3</v>
       </c>
       <c r="E7" s="14">
         <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
-        <v>1.7602540239585584E-3</v>
+        <v>2.0216058538384137E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="13">
-        <v>9.7343478764031939E-3</v>
+        <v>2.578311150329823E-3</v>
       </c>
       <c r="C8" s="13">
-        <v>6.3003758613489249E-3</v>
+        <v>3.5002088118605136E-4</v>
       </c>
       <c r="D8" s="13">
-        <v>2.6758729077141191E-2</v>
+        <v>5.4951697457934474E-4</v>
       </c>
       <c r="E8" s="14">
         <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
-        <v>1.4264484271631102E-2</v>
+        <v>1.1592830020317397E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="13">
-        <v>1.2065096632334221E-2</v>
+        <v>3.9694167920379594E-3</v>
       </c>
       <c r="C9" s="13">
-        <v>6.597932762580915E-3</v>
+        <v>3.7716642305282938E-4</v>
       </c>
       <c r="D9" s="13">
-        <v>1.0449065271626241E-2</v>
+        <v>9.3417885678488612E-4</v>
       </c>
       <c r="E9" s="14">
         <f>AVERAGE(Table1[[#This Row],[California]:[Rhode Island]])</f>
-        <v>9.7040315555137913E-3</v>
+        <v>1.7602540239585584E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,72 +743,72 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>67797.255199999985</v>
+        <v>164915.79999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>1656.5</v>
-      </c>
-      <c r="D11" s="9">
-        <v>565.66666666666663</v>
+        <v>24112</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>41997.542560000002</v>
+        <v>199723.2</v>
       </c>
       <c r="C12" s="2">
-        <v>1470</v>
+        <v>25216.75</v>
       </c>
       <c r="D12" s="9">
-        <v>204.66666666666666</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>67550.566200000001</v>
+        <v>67797.255199999985</v>
       </c>
       <c r="C13" s="2">
-        <v>1746.75</v>
+        <v>1656.5</v>
       </c>
       <c r="D13" s="9">
-        <v>345.33333333333331</v>
+        <v>565.66666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>164915.79999999999</v>
+        <v>41997.542560000002</v>
       </c>
       <c r="C14" s="2">
-        <v>24112</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
+        <v>1470</v>
+      </c>
+      <c r="D14" s="9">
+        <v>204.66666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>199723.2</v>
+        <v>67550.566200000001</v>
       </c>
       <c r="C15" s="2">
-        <v>25216.75</v>
+        <v>1746.75</v>
       </c>
       <c r="D15" s="9">
-        <v>3778</v>
+        <v>345.33333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
